--- a/data/trans_bre/P16B04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,27 +609,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,1%</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-2,9; 64,93</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-48,04; 0,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 190,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,04; 0,0</t>
         </is>
       </c>
     </row>
@@ -689,27 +689,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -727,27 +727,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-12,56; 39,01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 24,13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,63; 72,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,18; 32,3</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-8,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-39,58; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 24,82</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-14,59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,27 +882,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-59,25; 0,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 40,04</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,25; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 66,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,19; 72,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,14; 35,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 250,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 54,18</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-20,53; 9,7</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,04; 10,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 6,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 19,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 7,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 6,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 24,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,33; 8,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 9,7</t>
+          <t>0,0; 44,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 10,78</t>
+          <t>0,0; 87,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-49,19; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-49,19; 0,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-8,13; 6,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,46; 19,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-7,12; 7,79</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-8,28; 6,68</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,82; 24,63</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-7,33; 8,57</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Edad-trans_bre.xlsx
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 64,93</t>
+          <t>-2,3; 65,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 0,0</t>
+          <t>-38,94; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 190,5</t>
+          <t>-2,64; 193,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 0,0</t>
+          <t>-38,94; 0,0</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 39,01</t>
+          <t>-13,14; 40,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 24,13</t>
+          <t>-16,28; 23,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 72,51</t>
+          <t>-15,19; 79,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 32,3</t>
+          <t>-17,73; 32,18</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 0,0</t>
+          <t>-37,16; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,82</t>
+          <t>0,0; 25,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 0,0</t>
+          <t>-37,16; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,01</t>
+          <t>0,0; 33,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 0,0</t>
+          <t>-45,17; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,04</t>
+          <t>0,0; 48,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 0,0</t>
+          <t>-45,17; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,76</t>
+          <t>0,0; 94,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,6</t>
+          <t>0,0; 43,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 72,5</t>
+          <t>8,24; 75,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 35,25</t>
+          <t>-19,96; 35,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,16</t>
+          <t>0,0; 75,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 250,64</t>
+          <t>8,97; 307,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 54,18</t>
+          <t>-20,1; 53,33</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,89</t>
+          <t>0,0; 38,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,17</t>
+          <t>0,0; 62,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 0,0</t>
+          <t>-49,59; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 0,0</t>
+          <t>-49,59; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 6,1</t>
+          <t>-8,46; 6,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,46; 19,04</t>
+          <t>0,83; 19,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 7,79</t>
+          <t>-7,19; 8,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 6,68</t>
+          <t>-8,52; 6,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 24,63</t>
+          <t>0,48; 25,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 8,57</t>
+          <t>-7,51; 9,35</t>
         </is>
       </c>
     </row>
